--- a/preprocessing/Iso_Awake_VEPs.xlsx
+++ b/preprocessing/Iso_Awake_VEPs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,10 @@
     <sheet name="Sheet8" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Sheet9" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Sheet10" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Sheet11" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Sheet12" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Sheet13" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Sheet14" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="189">
   <si>
     <t xml:space="preserve">expName</t>
   </si>
@@ -497,6 +501,105 @@
   </si>
   <si>
     <t xml:space="preserve">2020-02-19_14-56-00.mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-04_14-19-00.mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delta pattern - small amp singals, hard to see EPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[40, 41, 42, 43, 44, 45, 46, 47, 48]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-04_14-40-00.mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 mins of emergence - video stopped that was why, for most of the time, mouse was super still - at 7 mins mouse started small movements with pupil changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-04_14-57-00.mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">starts to move whiskers at 2 mins, missed first flash on video (or might be the first frame)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-04_15-04-00.mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slightly angerier eeg, whiskers move at 1 min, video stops at 6 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-04_15-12-00.mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More whisking and high freq movement act, Hard to see pupil responses at times - kinda looks clouded over, noise at 6 mins 30 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-14_16-22-00.mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[16, 28, 30, 31, 32, 40, 41, 42, 43, 44, 45, 46, 47, 48]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-14_16-50-00.mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS, small VEPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-14_17-53-00.mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mainly BS, hard to see VEPs, some noise in all channels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-15_14-56-00.mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[16, 28, 30, 31, 32, 40, 41, 42, 43, 44, 45, 46, 47, 48, 62, 63, 64]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-15_15-10-00.mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie recording may be off by one flash – mouse starts moving 10:45 mins into recording, and 18 mins – new noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-15_15-42-00.mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No real whisker movements, some volunentary facial movemnts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-15_15-52-00.mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">still not moving whiskers, but volunetary facial and foot movements </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-15_16-24-00.mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not 100 flashes – started 3 mins after ket delivered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-07-15_16-30-00.mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 movies associated with this file – either way no mouse movement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-07-15_16-38-00.mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">still looks like ketamine mouse brain </t>
   </si>
 </sst>
 </file>
@@ -592,7 +695,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -611,6 +714,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -696,13 +803,13 @@
       <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.8010204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,7 +889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -846,7 +953,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -910,7 +1017,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -974,7 +1081,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -1038,7 +1145,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -1121,16 +1228,16 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1198,7 +1305,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>147</v>
       </c>
@@ -1258,7 +1365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>148</v>
       </c>
@@ -1315,7 +1422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>149</v>
       </c>
@@ -1372,7 +1479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>150</v>
       </c>
@@ -1429,7 +1536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>151</v>
       </c>
@@ -1486,7 +1593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>152</v>
       </c>
@@ -1548,7 +1655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>154</v>
       </c>
@@ -1607,7 +1714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>155</v>
       </c>
@@ -1673,6 +1780,1220 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:V6"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V2" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V3" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V4" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V5" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V6" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V2" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V3" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V4" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:V9"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.7040816326531"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.5051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V2" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V3" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V4" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V5" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V6" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V8" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1688,13 +3009,13 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1774,7 +3095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>42</v>
       </c>
@@ -1830,7 +3151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>45</v>
       </c>
@@ -1886,7 +3207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>47</v>
       </c>
@@ -1964,15 +3285,15 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.9336734693878"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +3397,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -2148,7 +3469,7 @@
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>62</v>
       </c>
@@ -2215,7 +3536,7 @@
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>63</v>
       </c>
@@ -2283,7 +3604,7 @@
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>64</v>
       </c>
@@ -2354,7 +3675,7 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>66</v>
       </c>
@@ -2422,7 +3743,7 @@
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>67</v>
       </c>
@@ -2490,7 +3811,7 @@
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>68</v>
       </c>
@@ -2558,7 +3879,7 @@
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>69</v>
       </c>
@@ -2626,7 +3947,7 @@
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>71</v>
       </c>
@@ -2697,7 +4018,7 @@
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>73</v>
       </c>
@@ -2765,7 +4086,7 @@
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>74</v>
       </c>
@@ -2833,7 +4154,7 @@
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>75</v>
       </c>
@@ -2901,7 +4222,7 @@
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>76</v>
       </c>
@@ -2969,7 +4290,7 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>77</v>
       </c>
@@ -3059,13 +4380,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.9336734693878"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3133,7 +4454,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
@@ -3195,7 +4516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>81</v>
       </c>
@@ -3254,7 +4575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
@@ -3313,7 +4634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>83</v>
       </c>
@@ -3372,7 +4693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>84</v>
       </c>
@@ -3453,16 +4774,17 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="5" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="16" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3530,7 +4852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -3592,7 +4914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
@@ -3651,7 +4973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>88</v>
       </c>
@@ -3710,7 +5032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>89</v>
       </c>
@@ -3769,7 +5091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>90</v>
       </c>
@@ -3831,7 +5153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>91</v>
       </c>
@@ -3890,7 +5212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>92</v>
       </c>
@@ -3949,7 +5271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>93</v>
       </c>
@@ -4008,7 +5330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>94</v>
       </c>
@@ -4067,7 +5389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>95</v>
       </c>
@@ -4129,7 +5451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>96</v>
       </c>
@@ -4188,7 +5510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>97</v>
       </c>
@@ -4247,7 +5569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>98</v>
       </c>
@@ -4306,7 +5628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>99</v>
       </c>
@@ -4387,15 +5709,15 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4463,7 +5785,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>100</v>
       </c>
@@ -4525,7 +5847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
@@ -4584,7 +5906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
@@ -4643,7 +5965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>105</v>
       </c>
@@ -4702,7 +6024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>106</v>
       </c>
@@ -4762,7 +6084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>107</v>
       </c>
@@ -4819,7 +6141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>108</v>
       </c>
@@ -4876,7 +6198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
@@ -4935,7 +6257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>111</v>
       </c>
@@ -4994,7 +6316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>113</v>
       </c>
@@ -5078,13 +6400,13 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5152,7 +6474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
@@ -5214,7 +6536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>117</v>
       </c>
@@ -5273,7 +6595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>119</v>
       </c>
@@ -5332,7 +6654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>121</v>
       </c>
@@ -5391,7 +6713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>123</v>
       </c>
@@ -5451,7 +6773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>124</v>
       </c>
@@ -5510,7 +6832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>126</v>
       </c>
@@ -5567,7 +6889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>127</v>
       </c>
@@ -5648,15 +6970,15 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5724,7 +7046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>129</v>
       </c>
@@ -5786,7 +7108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>132</v>
       </c>
@@ -5845,7 +7167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>135</v>
       </c>
@@ -5902,7 +7224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>136</v>
       </c>
@@ -5959,7 +7281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>137</v>
       </c>
@@ -6032,21 +7354,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V65536"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.219387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6114,7 +7436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>138</v>
       </c>
@@ -6174,7 +7496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>140</v>
       </c>
@@ -6231,7 +7553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>141</v>
       </c>
@@ -6288,7 +7610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>143</v>
       </c>
@@ -6347,7 +7669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>145</v>
       </c>
@@ -6409,7 +7731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>146</v>
       </c>
@@ -6468,7 +7790,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
